--- a/Table4.xlsx
+++ b/Table4.xlsx
@@ -745,10 +745,10 @@
         <v>0.007</v>
       </c>
       <c r="E9" t="n">
-        <v>19</v>
+        <v>0.01</v>
       </c>
       <c r="F9" t="n">
-        <v>20</v>
+        <v>0.01</v>
       </c>
       <c r="G9" t="n">
         <v>0.202</v>
